--- a/buku-lingkungan/2019/Kegiatan-theresia-2019.xlsx
+++ b/buku-lingkungan/2019/Kegiatan-theresia-2019.xlsx
@@ -883,6 +883,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -891,19 +900,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -938,7 +947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="57.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="57.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -970,7 +979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="57.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="57.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1002,7 +1011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="57.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="57.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1037,7 +1046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="46.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="46.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -1072,7 +1081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="46.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="46.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -1104,7 +1113,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="80.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="80.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -1136,7 +1145,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="46.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="46.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
@@ -1168,7 +1177,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="57.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="57.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -1200,7 +1209,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="57.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="57.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
@@ -1232,7 +1241,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="57.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="57.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
@@ -3970,24 +3979,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J90">
-    <filterColumn colId="3">
-      <filters>
-        <filter val=""/>
-        <filter val="10"/>
-        <filter val="11"/>
-        <filter val="12"/>
-        <filter val="5"/>
-        <filter val="6"/>
-        <filter val="7"/>
-        <filter val="8"/>
-        <filter val="9"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J90"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
